--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp2-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Bmp2</t>
+  </si>
+  <si>
+    <t>Eng</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Bmp2</t>
-  </si>
-  <si>
-    <t>Eng</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H2">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I2">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J2">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N2">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O2">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P2">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q2">
-        <v>445.6946319227307</v>
+        <v>3303.688821268913</v>
       </c>
       <c r="R2">
-        <v>4011.251687304577</v>
+        <v>29733.19939142022</v>
       </c>
       <c r="S2">
-        <v>0.2525037488589485</v>
+        <v>0.6192439008682802</v>
       </c>
       <c r="T2">
-        <v>0.2525037488589486</v>
+        <v>0.6192439008682802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H3">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I3">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J3">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N3">
         <v>133.658642</v>
       </c>
       <c r="O3">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P3">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q3">
-        <v>114.9497587350898</v>
+        <v>742.1053039868865</v>
       </c>
       <c r="R3">
-        <v>1034.547828615808</v>
+        <v>6678.947735881979</v>
       </c>
       <c r="S3">
-        <v>0.06512361364063701</v>
+        <v>0.1391003233529041</v>
       </c>
       <c r="T3">
-        <v>0.06512361364063703</v>
+        <v>0.1391003233529041</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H4">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I4">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J4">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N4">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O4">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P4">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q4">
-        <v>21.11910142111289</v>
+        <v>81.35359027695333</v>
       </c>
       <c r="R4">
-        <v>190.071912790016</v>
+        <v>732.18231249258</v>
       </c>
       <c r="S4">
-        <v>0.01196481155350299</v>
+        <v>0.01524892849121026</v>
       </c>
       <c r="T4">
-        <v>0.01196481155350299</v>
+        <v>0.01524892849121026</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H5">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I5">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J5">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N5">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O5">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P5">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q5">
-        <v>22.11618503644445</v>
+        <v>115.8026450536767</v>
       </c>
       <c r="R5">
-        <v>199.045665328</v>
+        <v>1042.22380548309</v>
       </c>
       <c r="S5">
-        <v>0.01252969910826425</v>
+        <v>0.02170606420079252</v>
       </c>
       <c r="T5">
-        <v>0.01252969910826426</v>
+        <v>0.02170606420079252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H6">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I6">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J6">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N6">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O6">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P6">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q6">
-        <v>6.189529463317333</v>
+        <v>43.09500254314666</v>
       </c>
       <c r="R6">
-        <v>55.70576516985601</v>
+        <v>387.85502288832</v>
       </c>
       <c r="S6">
-        <v>0.003506614801300761</v>
+        <v>0.008077733384252774</v>
       </c>
       <c r="T6">
-        <v>0.003506614801300762</v>
+        <v>0.008077733384252774</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H7">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I7">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J7">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N7">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O7">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P7">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q7">
-        <v>19.74944556364089</v>
+        <v>156.31343366873</v>
       </c>
       <c r="R7">
-        <v>177.745010072768</v>
+        <v>1406.82090301857</v>
       </c>
       <c r="S7">
-        <v>0.01118884699416709</v>
+        <v>0.02929941216012018</v>
       </c>
       <c r="T7">
-        <v>0.01118884699416709</v>
+        <v>0.02929941216012019</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>5.355062</v>
       </c>
       <c r="I8">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J8">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N8">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O8">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P8">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q8">
-        <v>308.3531415903987</v>
+        <v>354.0402481279729</v>
       </c>
       <c r="R8">
-        <v>2775.178274313588</v>
+        <v>3186.362233151756</v>
       </c>
       <c r="S8">
-        <v>0.1746943280158428</v>
+        <v>0.06636135428485453</v>
       </c>
       <c r="T8">
-        <v>0.1746943280158428</v>
+        <v>0.06636135428485453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>5.355062</v>
       </c>
       <c r="I9">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J9">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N9">
         <v>133.658642</v>
       </c>
       <c r="O9">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P9">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q9">
-        <v>79.52781274953379</v>
+        <v>79.52781274953377</v>
       </c>
       <c r="R9">
-        <v>715.7503147458041</v>
+        <v>715.750314745804</v>
       </c>
       <c r="S9">
-        <v>0.0450556713487435</v>
+        <v>0.01490670449271555</v>
       </c>
       <c r="T9">
-        <v>0.04505567134874352</v>
+        <v>0.01490670449271555</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>5.355062</v>
       </c>
       <c r="I10">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J10">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N10">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O10">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P10">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q10">
-        <v>14.61121764620089</v>
+        <v>8.718268228631555</v>
       </c>
       <c r="R10">
-        <v>131.500958815808</v>
+        <v>78.464414057684</v>
       </c>
       <c r="S10">
-        <v>0.00827783636330484</v>
+        <v>0.001634153432356319</v>
       </c>
       <c r="T10">
-        <v>0.008277836363304841</v>
+        <v>0.001634153432356319</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>5.355062</v>
       </c>
       <c r="I11">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J11">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N11">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O11">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P11">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q11">
-        <v>15.30104840294445</v>
+        <v>12.41000572594245</v>
       </c>
       <c r="R11">
-        <v>137.7094356265</v>
+        <v>111.690051533482</v>
       </c>
       <c r="S11">
-        <v>0.008668652944165411</v>
+        <v>0.002326133232057441</v>
       </c>
       <c r="T11">
-        <v>0.008668652944165415</v>
+        <v>0.002326133232057441</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>5.355062</v>
       </c>
       <c r="I12">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J12">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N12">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O12">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P12">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q12">
-        <v>4.282216383775333</v>
+        <v>4.618281629681778</v>
       </c>
       <c r="R12">
-        <v>38.539947453978</v>
+        <v>41.564534667136</v>
       </c>
       <c r="S12">
-        <v>0.002426046025422941</v>
+        <v>0.0008656513631856</v>
       </c>
       <c r="T12">
-        <v>0.002426046025422941</v>
+        <v>0.0008656513631855999</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>5.355062</v>
       </c>
       <c r="I13">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J13">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N13">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O13">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P13">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q13">
-        <v>13.66362336011489</v>
+        <v>16.75134972928733</v>
       </c>
       <c r="R13">
-        <v>122.972610241034</v>
+        <v>150.762147563586</v>
       </c>
       <c r="S13">
-        <v>0.007740986483372884</v>
+        <v>0.003139875367313943</v>
       </c>
       <c r="T13">
-        <v>0.007740986483372888</v>
+        <v>0.003139875367313943</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H14">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I14">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J14">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N14">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O14">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P14">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q14">
-        <v>11.33540241872133</v>
+        <v>2.844916812764222</v>
       </c>
       <c r="R14">
-        <v>102.018621768492</v>
+        <v>25.604251314878</v>
       </c>
       <c r="S14">
-        <v>0.006421956650463201</v>
+        <v>0.0005332516105754844</v>
       </c>
       <c r="T14">
-        <v>0.006421956650463202</v>
+        <v>0.0005332516105754845</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H15">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I15">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J15">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N15">
         <v>133.658642</v>
       </c>
       <c r="O15">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P15">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q15">
-        <v>2.923530327426223</v>
+        <v>0.6390516693224443</v>
       </c>
       <c r="R15">
-        <v>26.311772946836</v>
+        <v>5.751465023901999</v>
       </c>
       <c r="S15">
-        <v>0.001656296295051476</v>
+        <v>0.0001197839354663014</v>
       </c>
       <c r="T15">
-        <v>0.001656296295051477</v>
+        <v>0.0001197839354663014</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H16">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I16">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J16">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N16">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O16">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P16">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q16">
-        <v>0.5371245157191112</v>
+        <v>0.07005629442688888</v>
       </c>
       <c r="R16">
-        <v>4.834120641472</v>
+        <v>0.630506649842</v>
       </c>
       <c r="S16">
-        <v>0.0003043024171909614</v>
+        <v>1.313136175598429E-05</v>
       </c>
       <c r="T16">
-        <v>0.0003043024171909614</v>
+        <v>1.313136175598429E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H17">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I17">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J17">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N17">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O17">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P17">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q17">
-        <v>0.5624834570555556</v>
+        <v>0.0997215263601111</v>
       </c>
       <c r="R17">
-        <v>5.0623511135</v>
+        <v>0.897493737241</v>
       </c>
       <c r="S17">
-        <v>0.0003186692668138137</v>
+        <v>1.869181703380161E-05</v>
       </c>
       <c r="T17">
-        <v>0.0003186692668138138</v>
+        <v>1.869181703380161E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H18">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I18">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J18">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N18">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O18">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P18">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q18">
-        <v>0.1574190089446666</v>
+        <v>0.03711054639644444</v>
       </c>
       <c r="R18">
-        <v>1.416771080502</v>
+        <v>0.333994917568</v>
       </c>
       <c r="S18">
-        <v>8.918413427756937E-05</v>
+        <v>6.956006075978121E-06</v>
       </c>
       <c r="T18">
-        <v>8.918413427756942E-05</v>
+        <v>6.956006075978122E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H19">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I19">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J19">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N19">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O19">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P19">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q19">
-        <v>0.5022899020451111</v>
+        <v>0.1346067198103333</v>
       </c>
       <c r="R19">
-        <v>4.520609118406</v>
+        <v>1.211460478293</v>
       </c>
       <c r="S19">
-        <v>0.000284567222031009</v>
+        <v>2.52307026381555E-05</v>
       </c>
       <c r="T19">
-        <v>0.0002845672220310091</v>
+        <v>2.52307026381555E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H20">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I20">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J20">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N20">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O20">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P20">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q20">
-        <v>359.2464830933073</v>
+        <v>294.2985156633658</v>
       </c>
       <c r="R20">
-        <v>3233.218347839766</v>
+        <v>2648.686640970292</v>
       </c>
       <c r="S20">
-        <v>0.2035274316724985</v>
+        <v>0.05516335548489393</v>
       </c>
       <c r="T20">
-        <v>0.2035274316724986</v>
+        <v>0.05516335548489393</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H21">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I21">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J21">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N21">
         <v>133.658642</v>
       </c>
       <c r="O21">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P21">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q21">
-        <v>92.65378938906423</v>
+        <v>66.10806926584755</v>
       </c>
       <c r="R21">
-        <v>833.884104501578</v>
+        <v>594.972623392628</v>
       </c>
       <c r="S21">
-        <v>0.05249205956508402</v>
+        <v>0.01239130587224326</v>
       </c>
       <c r="T21">
-        <v>0.05249205956508404</v>
+        <v>0.01239130587224326</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H22">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I22">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J22">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N22">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O22">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P22">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q22">
-        <v>17.02278279389511</v>
+        <v>7.24712349064311</v>
       </c>
       <c r="R22">
-        <v>153.205045145056</v>
+        <v>65.224111415788</v>
       </c>
       <c r="S22">
-        <v>0.009644084006412965</v>
+        <v>0.001358401854172298</v>
       </c>
       <c r="T22">
-        <v>0.009644084006412968</v>
+        <v>0.001358401854172298</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H23">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I23">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J23">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N23">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O23">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P23">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q23">
-        <v>17.82646934630555</v>
+        <v>10.31590697337489</v>
       </c>
       <c r="R23">
-        <v>160.43822411675</v>
+        <v>92.843162760374</v>
       </c>
       <c r="S23">
-        <v>0.01009940442729329</v>
+        <v>0.001933615065093622</v>
       </c>
       <c r="T23">
-        <v>0.0100994044272933</v>
+        <v>0.001933615065093622</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H24">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I24">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J24">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N24">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O24">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P24">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q24">
-        <v>4.988991413485666</v>
+        <v>3.838979990883555</v>
       </c>
       <c r="R24">
-        <v>44.900922721371</v>
+        <v>34.550819917952</v>
       </c>
       <c r="S24">
-        <v>0.002826462211347957</v>
+        <v>0.0007195789535640721</v>
       </c>
       <c r="T24">
-        <v>0.002826462211347958</v>
+        <v>0.0007195789535640721</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H25">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I25">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J25">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N25">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O25">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P25">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q25">
-        <v>15.91878912961811</v>
+        <v>13.92468056034467</v>
       </c>
       <c r="R25">
-        <v>143.269102166563</v>
+        <v>125.322125043102</v>
       </c>
       <c r="S25">
-        <v>0.009018627653609508</v>
+        <v>0.002610044097682487</v>
       </c>
       <c r="T25">
-        <v>0.009018627653609512</v>
+        <v>0.002610044097682487</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H26">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I26">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J26">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N26">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O26">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P26">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q26">
-        <v>10.41352069319467</v>
+        <v>12.68196492895955</v>
       </c>
       <c r="R26">
-        <v>93.721686238752</v>
+        <v>114.137684360636</v>
       </c>
       <c r="S26">
-        <v>0.005899673959518886</v>
+        <v>0.002377109303613919</v>
       </c>
       <c r="T26">
-        <v>0.005899673959518887</v>
+        <v>0.00237710930361392</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H27">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I27">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J27">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N27">
         <v>133.658642</v>
       </c>
       <c r="O27">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P27">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q27">
-        <v>2.685766454268445</v>
+        <v>2.84874089174711</v>
       </c>
       <c r="R27">
-        <v>24.171898088416</v>
+        <v>25.638668025724</v>
       </c>
       <c r="S27">
-        <v>0.001521593597250147</v>
+        <v>0.0005339683964819981</v>
       </c>
       <c r="T27">
-        <v>0.001521593597250147</v>
+        <v>0.0005339683964819981</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H28">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I28">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J28">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N28">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O28">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P28">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q28">
-        <v>0.4934414370702223</v>
+        <v>0.3122943577782222</v>
       </c>
       <c r="R28">
-        <v>4.440972933632001</v>
+        <v>2.810649220004</v>
       </c>
       <c r="S28">
-        <v>0.0002795542144294414</v>
+        <v>5.853649868133249E-05</v>
       </c>
       <c r="T28">
-        <v>0.0002795542144294415</v>
+        <v>5.853649868133249E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H29">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I29">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J29">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N29">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O29">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P29">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q29">
-        <v>0.5167379951111112</v>
+        <v>0.4445349313157777</v>
       </c>
       <c r="R29">
-        <v>4.650641956</v>
+        <v>4.000814381842</v>
       </c>
       <c r="S29">
-        <v>0.0002927526418268222</v>
+        <v>8.332369052678051E-05</v>
       </c>
       <c r="T29">
-        <v>0.0002927526418268223</v>
+        <v>8.332369052678052E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H30">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I30">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J30">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N30">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O30">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P30">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q30">
-        <v>0.1446164897013333</v>
+        <v>0.1654300209351111</v>
       </c>
       <c r="R30">
-        <v>1.301548407312</v>
+        <v>1.488870188416</v>
       </c>
       <c r="S30">
-        <v>8.193099755067037E-05</v>
+        <v>3.100822656936337E-05</v>
       </c>
       <c r="T30">
-        <v>8.19309975506704E-05</v>
+        <v>3.100822656936337E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H31">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I31">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J31">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N31">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O31">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P31">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q31">
-        <v>0.4614398409262223</v>
+        <v>0.6000448562073332</v>
       </c>
       <c r="R31">
-        <v>4.152958568336</v>
+        <v>5.400403705865999</v>
       </c>
       <c r="S31">
-        <v>0.0002614240364621398</v>
+        <v>0.0001124724928878312</v>
       </c>
       <c r="T31">
-        <v>0.00026142403646214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H32">
-        <v>1.980498</v>
-      </c>
-      <c r="I32">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J32">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>172.744858</v>
-      </c>
-      <c r="N32">
-        <v>518.234574</v>
-      </c>
-      <c r="O32">
-        <v>0.7076554979861184</v>
-      </c>
-      <c r="P32">
-        <v>0.7076554979861185</v>
-      </c>
-      <c r="Q32">
-        <v>114.040281926428</v>
-      </c>
-      <c r="R32">
-        <v>1026.362537337852</v>
-      </c>
-      <c r="S32">
-        <v>0.06460835882884651</v>
-      </c>
-      <c r="T32">
-        <v>0.06460835882884652</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H33">
-        <v>1.980498</v>
-      </c>
-      <c r="I33">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J33">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>44.55288066666667</v>
-      </c>
-      <c r="N33">
-        <v>133.658642</v>
-      </c>
-      <c r="O33">
-        <v>0.1825124713980552</v>
-      </c>
-      <c r="P33">
-        <v>0.1825124713980553</v>
-      </c>
-      <c r="Q33">
-        <v>29.41229701819067</v>
-      </c>
-      <c r="R33">
-        <v>264.710673163716</v>
-      </c>
-      <c r="S33">
-        <v>0.01666323695128905</v>
-      </c>
-      <c r="T33">
-        <v>0.01666323695128905</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H34">
-        <v>1.980498</v>
-      </c>
-      <c r="I34">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J34">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>8.185461333333334</v>
-      </c>
-      <c r="N34">
-        <v>24.556384</v>
-      </c>
-      <c r="O34">
-        <v>0.03353203553003075</v>
-      </c>
-      <c r="P34">
-        <v>0.03353203553003076</v>
-      </c>
-      <c r="Q34">
-        <v>5.403763266581334</v>
-      </c>
-      <c r="R34">
-        <v>48.633869399232</v>
-      </c>
-      <c r="S34">
-        <v>0.003061446975189551</v>
-      </c>
-      <c r="T34">
-        <v>0.003061446975189551</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H35">
-        <v>1.980498</v>
-      </c>
-      <c r="I35">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J35">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>8.571916666666667</v>
-      </c>
-      <c r="N35">
-        <v>25.71575</v>
-      </c>
-      <c r="O35">
-        <v>0.03511516364467131</v>
-      </c>
-      <c r="P35">
-        <v>0.03511516364467132</v>
-      </c>
-      <c r="Q35">
-        <v>5.658887938166666</v>
-      </c>
-      <c r="R35">
-        <v>50.92999144349999</v>
-      </c>
-      <c r="S35">
-        <v>0.003205985256307715</v>
-      </c>
-      <c r="T35">
-        <v>0.003205985256307717</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H36">
-        <v>1.980498</v>
-      </c>
-      <c r="I36">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J36">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>2.398973</v>
-      </c>
-      <c r="N36">
-        <v>7.196918999999999</v>
-      </c>
-      <c r="O36">
-        <v>0.009827478818329008</v>
-      </c>
-      <c r="P36">
-        <v>0.009827478818329011</v>
-      </c>
-      <c r="Q36">
-        <v>1.583720409518</v>
-      </c>
-      <c r="R36">
-        <v>14.253483685662</v>
-      </c>
-      <c r="S36">
-        <v>0.0008972406484291092</v>
-      </c>
-      <c r="T36">
-        <v>0.0008972406484291096</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H37">
-        <v>1.980498</v>
-      </c>
-      <c r="I37">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J37">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>7.654602333333333</v>
-      </c>
-      <c r="N37">
-        <v>22.963807</v>
-      </c>
-      <c r="O37">
-        <v>0.03135735262279531</v>
-      </c>
-      <c r="P37">
-        <v>0.03135735262279532</v>
-      </c>
-      <c r="Q37">
-        <v>5.053308203987332</v>
-      </c>
-      <c r="R37">
-        <v>45.47977383588599</v>
-      </c>
-      <c r="S37">
-        <v>0.002862900233152675</v>
-      </c>
-      <c r="T37">
-        <v>0.002862900233152676</v>
+        <v>0.0001124724928878312</v>
       </c>
     </row>
   </sheetData>
